--- a/Jubilee_Line_website.xlsx
+++ b/Jubilee_Line_website.xlsx
@@ -12,6 +12,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Cocktail bars'!$A$1:$D$26</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Cocktail bars'!$A$1:$D$26</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -486,22 +487,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.3755868544601"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.981220657277"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.849765258216"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.018779342723"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.4037558685446"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.3098591549296"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8638497652582"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.0422535211268"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.6807511737089"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.4460093896714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -532,7 +533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
@@ -546,7 +547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -560,7 +561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>16</v>
       </c>
@@ -574,7 +575,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>20</v>
       </c>
@@ -588,7 +589,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>24</v>
       </c>
@@ -602,7 +603,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>28</v>
       </c>
@@ -630,7 +631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>36</v>
       </c>
@@ -644,7 +645,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>40</v>
       </c>
@@ -658,7 +659,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>44</v>
       </c>
@@ -672,7 +673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>48</v>
       </c>
@@ -686,7 +687,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>52</v>
       </c>
@@ -700,7 +701,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>56</v>
       </c>
@@ -714,7 +715,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>60</v>
       </c>
@@ -742,7 +743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>68</v>
       </c>
@@ -756,7 +757,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>72</v>
       </c>
@@ -770,7 +771,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>76</v>
       </c>
@@ -784,7 +785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>80</v>
       </c>
@@ -798,12 +799,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>85</v>
       </c>
@@ -851,15 +852,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D26">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="London Bridge"/>
-        <filter val="Finchley Road"/>
-        <filter val="Stratford"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D26"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.google.co.uk/maps/dir/''/''/@51.5416164,-0.0712982,12z/data=!3m1!4b1!4m8!4m7!1m0!1m5!1m1!1s0x48761d62192c7035:0x20db3737246b79a5!2m2!1d-0.0012587!2d51.5416372"/>
     <hyperlink ref="C3" r:id="rId2" display="https://www.google.co.uk/maps/dir/''/''/@51.5400895,-0.0669857,12z/data=!3m1!4b1!4m8!4m7!1m0!1m5!1m1!1s0x47d8a78a3457ce63:0xe0fcd33c214db37c!2m2!1d0.0030538!2d51.5401103"/>
